--- a/python_imoocs/python_03_数据分析/data/test.xlsx
+++ b/python_imoocs/python_03_数据分析/data/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,295 +390,301 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>20170301</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>20170301</v>
+        <v>20170302</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>20170302</v>
+        <v>20170303</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>20170303</v>
+        <v>20170304</v>
       </c>
       <c r="B5">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>20170304</v>
+        <v>20170305</v>
       </c>
       <c r="B6">
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-64</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>20170305</v>
+        <v>20170306</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-140</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>20170306</v>
+        <v>20170307</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-216</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>20170307</v>
+        <v>20170308</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>20170308</v>
+        <v>20170309</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>20170309</v>
+        <v>20170310</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-93</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>567</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>20170310</v>
+        <v>20170311</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>20170311</v>
+        <v>20170312</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-477</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>20170312</v>
+        <v>20170313</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>20170313</v>
+        <v>20170314</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>-1521</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20170314</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>-186</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>-1152</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
